--- a/output.xlsx
+++ b/output.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,139 +428,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date_reg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>num_query</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>date_query</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>to_sfr</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>snils</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>name_org</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>work_period</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>due_date</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>type_query</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>date_answer</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>spec</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>24.10.2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.10.2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ОСФР по РБ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>111-111-111 11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Хорошева И.И.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ООО "КОЛОСОК"</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>01.01.2003 - 31.12.2004</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>16.10.2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ЗСИД</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Гарифулина Ф.А.</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Дата рег-ции</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Номер з-cа:</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Дата запроса:</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Адресат - ТО СФР:</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>СНИЛС:</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Ф.И.О.:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Название орг-ции, рег.№:</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Период работы:    </t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Срок исполнения:</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Вид запроса:</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Дата ответа:</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Специалист</t>
         </is>
       </c>
     </row>
